--- a/相关/测试记录/飞鹰测试20180822(1).xlsx
+++ b/相关/测试记录/飞鹰测试20180822(1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23490" windowHeight="11505"/>
+    <workbookView windowWidth="18547" windowHeight="7695"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376">
   <si>
     <t>序号</t>
   </si>
@@ -1047,9 +1047,6 @@
     <t>改成  向左箭头后面加返回    《返回</t>
   </si>
   <si>
-    <t>包裹-已入库-详情</t>
-  </si>
-  <si>
     <t>缺少返回键</t>
   </si>
   <si>
@@ -1134,25 +1131,28 @@
     <t>运单</t>
   </si>
   <si>
-    <t>看不懂</t>
+    <t>前台只负责展示，数据是后台返回的</t>
   </si>
   <si>
     <t>客户端前台下单重量跟总计不显示  管理前台下单的重量跟总计就显示</t>
   </si>
   <si>
+    <t>运单-已发货-追踪√</t>
+  </si>
+  <si>
+    <t>追踪的滚动条添加有问题  滚动条应该添加在追踪下拉框内而不是页面上  现在拖动滚动条整个页面滚动 下拉框内的内容没有改变</t>
+  </si>
+  <si>
     <t>运单-已发货-追踪</t>
   </si>
   <si>
-    <t>追踪的滚动条添加有问题  滚动条应该添加在追踪下拉框内而不是页面上  现在拖动滚动条整个页面滚动 下拉框内的内容没有改变</t>
+    <t>除了运单号之外其他的信息都需要后台返回</t>
   </si>
   <si>
     <t>点击追踪后  内容需要显示  运单号以及派送快递公司名称及单号</t>
   </si>
   <si>
     <t>左上角logo</t>
-  </si>
-  <si>
-    <t>扩展功能修改</t>
   </si>
   <si>
     <t>需要是飞鹰的logo可点</t>
@@ -1201,7 +1201,7 @@
     </r>
   </si>
   <si>
-    <t>见199</t>
+    <t>页面上方有待处理的点击处，重复了。返回列表页本身是应该返回列表的，本身的项目返回了成功页面就应该是个错误，而且在点击了查看详情之后本身的页面已经刷没了。所有的页面上方都有了返回的链接。其余的看199</t>
   </si>
   <si>
     <t>在线下单成功后 提示页面点击详情 然后提示错误           报错后的页面        应该跳转到详情页 但目前还是显示在在线下单页面但是无法进行下单也没有任何信息。详情页下方需要有按钮【返回列表】  点击后需要返回到提示运单创建成功页面</t>
@@ -1220,6 +1220,9 @@
   </si>
   <si>
     <t>包裹-已到库</t>
+  </si>
+  <si>
+    <t>看不懂</t>
   </si>
   <si>
     <t>已到库包裹点击【提交运单】后的页面增值服务输入框位置没有变更</t>
@@ -1237,9 +1240,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1315,7 +1318,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,9 +1353,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1353,7 +1377,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1383,30 +1422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1428,9 +1446,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1439,20 +1456,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,7 +1495,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,19 +1567,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1534,61 +1633,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,79 +1663,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,16 +1699,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1725,26 +1728,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1766,20 +1769,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1791,10 +1794,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1803,137 +1806,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1946,26 +1949,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1976,8 +1982,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1986,7 +1992,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1997,22 +2003,31 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2115,7 +2130,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10677525" y="3771900"/>
+          <a:off x="10267950" y="3771900"/>
           <a:ext cx="1532890" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2157,7 +2172,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7019925" y="5476875"/>
+          <a:off x="6610350" y="5476875"/>
           <a:ext cx="2075180" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2199,7 +2214,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8972550" y="5705475"/>
+          <a:off x="8562975" y="5705475"/>
           <a:ext cx="1000125" cy="131445"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2222,7 +2237,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7791450</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
@@ -2241,8 +2256,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14020165" y="7915275"/>
-          <a:ext cx="791210" cy="124460"/>
+          <a:off x="13610590" y="7915275"/>
+          <a:ext cx="417195" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2283,7 +2298,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12532360" y="8582025"/>
+          <a:off x="12122785" y="8582025"/>
           <a:ext cx="1092835" cy="142240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2306,7 +2321,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7858125</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>137795</xdr:rowOff>
     </xdr:to>
@@ -2325,8 +2340,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13999210" y="8582025"/>
-          <a:ext cx="878840" cy="128270"/>
+          <a:off x="13589635" y="8582025"/>
+          <a:ext cx="438150" cy="128270"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2348,7 +2363,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7858760</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
@@ -2367,8 +2382,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13762990" y="10963275"/>
-          <a:ext cx="1115695" cy="162560"/>
+          <a:off x="13353415" y="11134725"/>
+          <a:ext cx="674370" cy="162560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2390,7 +2405,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7849235</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>67</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -2409,8 +2424,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14171295" y="11677650"/>
-          <a:ext cx="697865" cy="180975"/>
+          <a:off x="13761720" y="11849100"/>
+          <a:ext cx="266065" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2451,8 +2466,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14116050" y="12506325"/>
-          <a:ext cx="810260" cy="180975"/>
+          <a:off x="13706475" y="12677775"/>
+          <a:ext cx="350520" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2493,7 +2508,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="13392150"/>
+          <a:off x="3286760" y="13563600"/>
           <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2516,7 +2531,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7811770</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>81</xdr:row>
       <xdr:rowOff>13970</xdr:rowOff>
     </xdr:to>
@@ -2535,8 +2550,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13858240" y="14258290"/>
-          <a:ext cx="973455" cy="157480"/>
+          <a:off x="13448665" y="14429740"/>
+          <a:ext cx="579120" cy="157480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2577,7 +2592,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7153275" y="15973425"/>
+          <a:off x="6743700" y="16144875"/>
           <a:ext cx="810260" cy="133985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2600,7 +2615,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7772400</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>97</xdr:row>
       <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
@@ -2619,8 +2634,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13267690" y="16992600"/>
-          <a:ext cx="1524635" cy="153670"/>
+          <a:off x="12858115" y="17164050"/>
+          <a:ext cx="1169670" cy="153670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2661,7 +2676,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13429615" y="17564100"/>
+          <a:off x="13020040" y="17735550"/>
           <a:ext cx="524510" cy="220345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2703,7 +2718,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14030325" y="17564100"/>
+          <a:off x="13620750" y="17735550"/>
           <a:ext cx="361950" cy="247650"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2720,13 +2735,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7466965</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>238125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7809865</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>98</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:to>
@@ -2745,8 +2760,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14486890" y="17554575"/>
-          <a:ext cx="342900" cy="257175"/>
+          <a:off x="14027785" y="17726025"/>
+          <a:ext cx="0" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2768,7 +2783,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7696200</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>105</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -2787,8 +2802,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13687425" y="19030950"/>
-          <a:ext cx="1028700" cy="161925"/>
+          <a:off x="13277850" y="19373850"/>
+          <a:ext cx="749935" cy="161925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2810,7 +2825,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7753350</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>112</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
@@ -2829,8 +2844,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13801725" y="20050125"/>
-          <a:ext cx="971550" cy="190500"/>
+          <a:off x="13392150" y="20393025"/>
+          <a:ext cx="635635" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2871,8 +2886,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14191615" y="21088350"/>
-          <a:ext cx="1341120" cy="153670"/>
+          <a:off x="13782040" y="21431250"/>
+          <a:ext cx="881380" cy="153670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2894,7 +2909,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7829550</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>124</xdr:row>
       <xdr:rowOff>163195</xdr:rowOff>
     </xdr:to>
@@ -2913,8 +2928,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14124305" y="22479000"/>
-          <a:ext cx="725170" cy="144145"/>
+          <a:off x="13714730" y="22993350"/>
+          <a:ext cx="313055" cy="144145"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2955,7 +2970,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13553440" y="22479000"/>
+          <a:off x="13143865" y="22993350"/>
           <a:ext cx="476885" cy="143510"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2978,7 +2993,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7820025</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>165735</xdr:rowOff>
     </xdr:to>
@@ -2997,8 +3012,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14137640" y="25555575"/>
-          <a:ext cx="702310" cy="156210"/>
+          <a:off x="13728065" y="26412825"/>
+          <a:ext cx="299720" cy="156210"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3039,7 +3054,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3448050" y="13392150"/>
+          <a:off x="3286760" y="13563600"/>
           <a:ext cx="0" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3062,7 +3077,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7562850</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>151</xdr:row>
       <xdr:rowOff>335280</xdr:rowOff>
     </xdr:to>
@@ -3081,8 +3096,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13961745" y="27260550"/>
-          <a:ext cx="621030" cy="163830"/>
+          <a:off x="13552170" y="28117800"/>
+          <a:ext cx="475615" cy="163830"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3104,7 +3119,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7668260</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>323215</xdr:rowOff>
     </xdr:to>
@@ -3123,8 +3138,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13702030" y="28642310"/>
-          <a:ext cx="986155" cy="141605"/>
+          <a:off x="13292455" y="29499560"/>
+          <a:ext cx="735330" cy="141605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3146,7 +3161,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7848600</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>1270</xdr:rowOff>
     </xdr:to>
@@ -3165,8 +3180,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13933805" y="30022165"/>
-          <a:ext cx="934720" cy="154305"/>
+          <a:off x="13524230" y="30879415"/>
+          <a:ext cx="503555" cy="154305"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3188,7 +3203,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7772400</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>847725</xdr:rowOff>
     </xdr:to>
@@ -3207,8 +3222,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14425295" y="30898465"/>
-          <a:ext cx="367030" cy="124460"/>
+          <a:off x="14015720" y="31755715"/>
+          <a:ext cx="12065" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3249,7 +3264,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13660755" y="30889575"/>
+          <a:off x="13251180" y="31746825"/>
           <a:ext cx="541020" cy="104775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3272,7 +3287,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7858125</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>157480</xdr:rowOff>
     </xdr:to>
@@ -3291,8 +3306,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14116685" y="27784425"/>
-          <a:ext cx="761365" cy="147955"/>
+          <a:off x="13707110" y="28641675"/>
+          <a:ext cx="320675" cy="147955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3314,7 +3329,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7743825</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>168</xdr:row>
       <xdr:rowOff>167005</xdr:rowOff>
     </xdr:to>
@@ -3333,8 +3348,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14163675" y="31394400"/>
-          <a:ext cx="600075" cy="147955"/>
+          <a:off x="13754100" y="32251650"/>
+          <a:ext cx="273685" cy="147955"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3375,7 +3390,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11553825" y="26393775"/>
+          <a:off x="11144250" y="27251025"/>
           <a:ext cx="752475" cy="38735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3398,7 +3413,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7800975</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>146</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
@@ -3417,8 +3432,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14135100" y="26250900"/>
-          <a:ext cx="685800" cy="152400"/>
+          <a:off x="13725525" y="27108150"/>
+          <a:ext cx="302260" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3459,7 +3474,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12915265" y="26403300"/>
+          <a:off x="12505690" y="27260550"/>
           <a:ext cx="628015" cy="220345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3501,7 +3516,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10714990" y="31746825"/>
+          <a:off x="10305415" y="32604075"/>
           <a:ext cx="1132205" cy="161290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3543,7 +3558,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7058025" y="32918400"/>
+          <a:off x="6648450" y="33775650"/>
           <a:ext cx="2088515" cy="167640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3585,7 +3600,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9117965" y="32956500"/>
+          <a:off x="8708390" y="33813750"/>
           <a:ext cx="920750" cy="160020"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3627,7 +3642,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10153015" y="32927925"/>
+          <a:off x="9743440" y="33785175"/>
           <a:ext cx="589280" cy="141605"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3669,7 +3684,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10821670" y="32918400"/>
+          <a:off x="10412095" y="33775650"/>
           <a:ext cx="730250" cy="187960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3711,7 +3726,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11823065" y="34470975"/>
+          <a:off x="11413490" y="35328225"/>
           <a:ext cx="681355" cy="175260"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3753,7 +3768,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10687050" y="35318700"/>
+          <a:off x="10277475" y="36175950"/>
           <a:ext cx="361950" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3776,7 +3791,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7839075</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>191</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -3795,8 +3810,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13995400" y="36031805"/>
-          <a:ext cx="863600" cy="134620"/>
+          <a:off x="13585825" y="36889055"/>
+          <a:ext cx="441960" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3818,7 +3833,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7848600</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>194</xdr:row>
       <xdr:rowOff>19685</xdr:rowOff>
     </xdr:to>
@@ -3837,8 +3852,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14199870" y="36347400"/>
-          <a:ext cx="668655" cy="191135"/>
+          <a:off x="13790295" y="37204650"/>
+          <a:ext cx="237490" cy="191135"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3860,7 +3875,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7753350</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>198</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
@@ -3879,8 +3894,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13748385" y="37233225"/>
-          <a:ext cx="1024890" cy="114300"/>
+          <a:off x="13338810" y="38090475"/>
+          <a:ext cx="688975" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3921,7 +3936,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9067165" y="38280975"/>
+          <a:off x="8657590" y="39300150"/>
           <a:ext cx="552450" cy="123190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3944,7 +3959,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7771130</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>213</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
@@ -3963,8 +3978,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13077190" y="39852600"/>
-          <a:ext cx="1713865" cy="86360"/>
+          <a:off x="12667615" y="40871775"/>
+          <a:ext cx="1360170" cy="86360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4005,7 +4020,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8943340" y="40338375"/>
+          <a:off x="8533765" y="41357550"/>
           <a:ext cx="1315085" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4047,7 +4062,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8162925" y="40519350"/>
+          <a:off x="7753350" y="41538525"/>
           <a:ext cx="0" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4089,7 +4104,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10258425" y="40509825"/>
+          <a:off x="9848850" y="41529000"/>
           <a:ext cx="0" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4112,7 +4127,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7524750</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>217</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
@@ -4131,8 +4146,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13706475" y="40490775"/>
-          <a:ext cx="838200" cy="101600"/>
+          <a:off x="13296900" y="41509950"/>
+          <a:ext cx="730885" cy="101600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4173,7 +4188,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13820775" y="40833675"/>
+          <a:off x="13411200" y="41852850"/>
           <a:ext cx="542925" cy="142875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4196,7 +4211,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7696200</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>221</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
@@ -4215,8 +4230,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13943330" y="41328975"/>
-          <a:ext cx="772795" cy="144780"/>
+          <a:off x="13533755" y="42348150"/>
+          <a:ext cx="494030" cy="144780"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4238,7 +4253,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7676515</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>224</xdr:row>
       <xdr:rowOff>10160</xdr:rowOff>
     </xdr:to>
@@ -4257,8 +4272,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13935075" y="41700450"/>
-          <a:ext cx="761365" cy="153035"/>
+          <a:off x="13525500" y="42891075"/>
+          <a:ext cx="502285" cy="153035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4299,7 +4314,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10290175" y="41871900"/>
+          <a:off x="9880600" y="43062525"/>
           <a:ext cx="635000" cy="127000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4337,7 +4352,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11929110" y="41871900"/>
+          <a:off x="11519535" y="43062525"/>
           <a:ext cx="358140" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4360,7 +4375,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7715250</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>225</xdr:row>
       <xdr:rowOff>153035</xdr:rowOff>
     </xdr:to>
@@ -4379,8 +4394,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14197330" y="42386250"/>
-          <a:ext cx="537845" cy="124460"/>
+          <a:off x="13787755" y="43748325"/>
+          <a:ext cx="240030" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4421,7 +4436,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13683615" y="42719625"/>
+          <a:off x="13274040" y="44081700"/>
           <a:ext cx="422910" cy="137795"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4444,7 +4459,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7781925</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>227</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -4463,8 +4478,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14263370" y="42738040"/>
-          <a:ext cx="538480" cy="124460"/>
+          <a:off x="13853795" y="44100115"/>
+          <a:ext cx="173990" cy="124460"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4486,7 +4501,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>7836535</xdr:colOff>
+      <xdr:colOff>7417435</xdr:colOff>
       <xdr:row>228</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -4505,8 +4520,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13554075" y="42910125"/>
-          <a:ext cx="1302385" cy="123825"/>
+          <a:off x="13144500" y="44272200"/>
+          <a:ext cx="883285" cy="123825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4783,33 +4798,33 @@
   <dimension ref="A1:H246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C204" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C209" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B213" sqref="B213"/>
+      <selection pane="bottomRight" activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="55.875" customWidth="1"/>
-    <col min="4" max="4" width="103.375" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
-    <col min="6" max="6" width="84.75" customWidth="1"/>
-    <col min="7" max="7" width="8.875" customWidth="1"/>
-    <col min="8" max="8" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="5.3716814159292" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.8761061946903" customWidth="1"/>
+    <col min="3" max="3" width="55.8761061946903" customWidth="1"/>
+    <col min="4" max="4" width="103.371681415929" customWidth="1"/>
+    <col min="5" max="5" width="14.5044247787611" customWidth="1"/>
+    <col min="6" max="6" width="84.7522123893805" customWidth="1"/>
+    <col min="7" max="7" width="8.87610619469027" customWidth="1"/>
+    <col min="8" max="8" width="15.8761061946903" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="4"/>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
@@ -4827,51 +4842,51 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="9"/>
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G4" t="s">
@@ -4882,17 +4897,17 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="9"/>
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G5" t="s">
@@ -4903,34 +4918,34 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="9"/>
       <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G7" t="s">
@@ -4941,19 +4956,19 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
@@ -4964,17 +4979,17 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="9"/>
       <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
@@ -4985,17 +5000,17 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="9"/>
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
@@ -5006,19 +5021,19 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G11" t="s">
@@ -5029,17 +5044,17 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="9"/>
+      <c r="C12" s="10"/>
       <c r="D12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
@@ -5050,17 +5065,17 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="6"/>
       <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
@@ -5071,17 +5086,17 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="11"/>
       <c r="D14" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G14" t="s">
@@ -5092,17 +5107,17 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="9"/>
       <c r="D15" t="s">
         <v>34</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G15" t="s">
@@ -5113,19 +5128,19 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G16" t="s">
@@ -5136,19 +5151,19 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G17" t="s">
@@ -5159,17 +5174,17 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="11"/>
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G18" t="s">
@@ -5180,17 +5195,17 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="11"/>
       <c r="D19" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G19" t="s">
@@ -5201,17 +5216,17 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="11"/>
       <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G20" t="s">
@@ -5222,17 +5237,17 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="11"/>
       <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G21" t="s">
@@ -5243,17 +5258,17 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="9"/>
       <c r="D22" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G22" t="s">
@@ -5264,19 +5279,19 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D23" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G23" t="s">
@@ -5287,17 +5302,17 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C24" s="10"/>
+      <c r="C24" s="11"/>
       <c r="D24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G24" t="s">
@@ -5308,17 +5323,17 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="10"/>
+      <c r="C25" s="11"/>
       <c r="D25" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G25" t="s">
@@ -5329,19 +5344,19 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D26" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G26" t="s">
@@ -5352,17 +5367,17 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="7"/>
+      <c r="C27" s="8"/>
       <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G27" t="s">
@@ -5373,17 +5388,17 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="10"/>
+      <c r="C28" s="11"/>
       <c r="D28" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="6" t="s">
+      <c r="E28" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
@@ -5394,17 +5409,17 @@
       </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="10"/>
+      <c r="C29" s="11"/>
       <c r="D29" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G29" t="s">
@@ -5415,19 +5430,19 @@
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D30" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G30" t="s">
@@ -5438,34 +5453,34 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="10"/>
+      <c r="C32" s="11"/>
       <c r="D32" t="s">
         <v>59</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G32" t="s">
@@ -5476,31 +5491,31 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C34" s="9"/>
+      <c r="C34" s="10"/>
       <c r="D34" t="s">
         <v>63</v>
       </c>
-      <c r="E34" s="6" t="s">
+      <c r="E34" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G34" t="s">
@@ -5511,17 +5526,17 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="9"/>
+      <c r="C35" s="10"/>
       <c r="D35" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G35" t="s">
@@ -5532,19 +5547,19 @@
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="8" t="s">
         <v>65</v>
       </c>
       <c r="D36" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E36" s="7" t="s">
         <v>62</v>
       </c>
       <c r="G36" t="s">
@@ -5555,17 +5570,17 @@
       </c>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="9"/>
+      <c r="C37" s="10"/>
       <c r="D37" t="s">
         <v>68</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E37" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G37" t="s">
@@ -5576,19 +5591,19 @@
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G38" t="s">
@@ -5599,17 +5614,17 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="10"/>
       <c r="D39" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G39" t="s">
@@ -5620,17 +5635,17 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="10"/>
       <c r="D40" t="s">
         <v>72</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G40" t="s">
@@ -5641,17 +5656,17 @@
       </c>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="9"/>
+      <c r="C41" s="10"/>
       <c r="D41" t="s">
         <v>74</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="E41" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G41" t="s">
@@ -5662,17 +5677,17 @@
       </c>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="10"/>
       <c r="D42" t="s">
         <v>75</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G42" t="s">
@@ -5683,17 +5698,17 @@
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="9"/>
+      <c r="C43" s="10"/>
       <c r="D43" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G43" t="s">
@@ -5704,17 +5719,17 @@
       </c>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="9"/>
+      <c r="C44" s="10"/>
       <c r="D44" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G44" t="s">
@@ -5725,17 +5740,17 @@
       </c>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="9"/>
+      <c r="C45" s="10"/>
       <c r="D45" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G45" t="s">
@@ -5746,19 +5761,19 @@
       </c>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D46" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="6" t="s">
+      <c r="E46" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G46" t="s">
@@ -5769,17 +5784,17 @@
       </c>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C47" s="9"/>
+      <c r="C47" s="10"/>
       <c r="D47" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="6" t="s">
+      <c r="E47" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G47" t="s">
@@ -5790,17 +5805,17 @@
       </c>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="9"/>
+      <c r="C48" s="10"/>
       <c r="D48" t="s">
         <v>83</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G48" t="s">
@@ -5811,17 +5826,17 @@
       </c>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C49" s="9"/>
+      <c r="C49" s="10"/>
       <c r="D49" t="s">
         <v>84</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G49" t="s">
@@ -5832,17 +5847,17 @@
       </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="9"/>
+      <c r="C50" s="10"/>
       <c r="D50" t="s">
         <v>85</v>
       </c>
-      <c r="E50" s="6" t="s">
+      <c r="E50" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G50" t="s">
@@ -5853,17 +5868,17 @@
       </c>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C51" s="9"/>
+      <c r="C51" s="10"/>
       <c r="D51" t="s">
         <v>86</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="7" t="s">
         <v>69</v>
       </c>
       <c r="G51" t="s">
@@ -5873,46 +5888,46 @@
         <v>8.15</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="4">
+    <row r="52" ht="27" spans="1:5">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D52" t="s">
         <v>88</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="53" ht="40.5" spans="1:5">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="9"/>
-      <c r="D53" s="11" t="s">
+      <c r="C53" s="10"/>
+      <c r="D53" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E53" s="6" t="s">
+      <c r="E53" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C54" s="9"/>
+      <c r="C54" s="10"/>
       <c r="D54" t="s">
         <v>91</v>
       </c>
@@ -5921,13 +5936,13 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="9"/>
+      <c r="C55" s="10"/>
       <c r="D55" t="s">
         <v>93</v>
       </c>
@@ -5936,13 +5951,13 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="10"/>
       <c r="D56" t="s">
         <v>95</v>
       </c>
@@ -5951,13 +5966,13 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="10"/>
       <c r="D57" t="s">
         <v>97</v>
       </c>
@@ -5966,13 +5981,13 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="10"/>
       <c r="D58" t="s">
         <v>98</v>
       </c>
@@ -5981,13 +5996,13 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="6" t="s">
         <v>99</v>
       </c>
       <c r="D59" t="s">
@@ -5998,13 +6013,13 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="10"/>
       <c r="D60" t="s">
         <v>88</v>
       </c>
@@ -6013,13 +6028,13 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="s">
+      <c r="B61" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="10"/>
       <c r="D61" t="s">
         <v>102</v>
       </c>
@@ -6028,13 +6043,13 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D62" t="s">
@@ -6045,13 +6060,13 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="10"/>
       <c r="D63" t="s">
         <v>105</v>
       </c>
@@ -6060,13 +6075,13 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C64" s="9"/>
+      <c r="C64" s="10"/>
       <c r="D64" t="s">
         <v>106</v>
       </c>
@@ -6075,13 +6090,13 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="C65" s="9"/>
+      <c r="C65" s="10"/>
       <c r="D65" t="s">
         <v>108</v>
       </c>
@@ -6090,13 +6105,13 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="12">
+      <c r="A66" s="13">
         <v>65</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="9"/>
+      <c r="C66" s="10"/>
       <c r="D66" t="s">
         <v>110</v>
       </c>
@@ -6105,13 +6120,13 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="7" t="s">
+      <c r="B67" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C67" s="9"/>
+      <c r="C67" s="10"/>
       <c r="D67" t="s">
         <v>112</v>
       </c>
@@ -6120,13 +6135,13 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="7" t="s">
+      <c r="B68" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C68" s="9"/>
+      <c r="C68" s="10"/>
       <c r="D68" t="s">
         <v>113</v>
       </c>
@@ -6135,13 +6150,13 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="s">
+      <c r="B69" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C69" s="9"/>
+      <c r="C69" s="10"/>
       <c r="D69" t="s">
         <v>115</v>
       </c>
@@ -6150,13 +6165,13 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C70" s="9"/>
+      <c r="C70" s="10"/>
       <c r="D70" t="s">
         <v>116</v>
       </c>
@@ -6165,13 +6180,13 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="6" t="s">
         <v>118</v>
       </c>
       <c r="D71" t="s">
@@ -6182,30 +6197,30 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72" s="13">
+      <c r="A72" s="14">
         <v>71</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="D72" s="15" t="s">
+      <c r="D72" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="16">
         <v>8.17</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="16">
+      <c r="A73" s="17">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D73" t="s">
@@ -6216,13 +6231,13 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C74" s="9"/>
+      <c r="C74" s="10"/>
       <c r="D74" t="s">
         <v>126</v>
       </c>
@@ -6231,14 +6246,14 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="C75" s="9"/>
-      <c r="D75" s="6" t="s">
+      <c r="C75" s="10"/>
+      <c r="D75" s="7" t="s">
         <v>128</v>
       </c>
       <c r="E75">
@@ -6246,13 +6261,13 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>130</v>
       </c>
       <c r="D76" t="s">
@@ -6263,14 +6278,14 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77" s="12">
+      <c r="A77" s="13">
         <v>76</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="6" t="s">
+      <c r="C77" s="10"/>
+      <c r="D77" s="7" t="s">
         <v>132</v>
       </c>
       <c r="E77">
@@ -6278,13 +6293,13 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78" s="18">
+      <c r="A78" s="19">
         <v>77</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>133</v>
       </c>
       <c r="D78" t="s">
@@ -6295,13 +6310,13 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="12">
+      <c r="A79" s="13">
         <v>78</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="C79" s="9"/>
+      <c r="C79" s="10"/>
       <c r="D79" t="s">
         <v>135</v>
       </c>
@@ -6310,13 +6325,13 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C80" s="9"/>
+      <c r="C80" s="10"/>
       <c r="D80" t="s">
         <v>137</v>
       </c>
@@ -6325,14 +6340,14 @@
       </c>
     </row>
     <row r="81" ht="27" spans="1:5">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="19" t="s">
+      <c r="C81" s="10"/>
+      <c r="D81" s="20" t="s">
         <v>138</v>
       </c>
       <c r="E81">
@@ -6340,13 +6355,13 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="6" t="s">
         <v>139</v>
       </c>
       <c r="D82" t="s">
@@ -6357,14 +6372,14 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C83" s="9"/>
-      <c r="D83" s="20" t="s">
+      <c r="C83" s="10"/>
+      <c r="D83" s="21" t="s">
         <v>141</v>
       </c>
       <c r="E83">
@@ -6372,13 +6387,13 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="C84" s="9"/>
+      <c r="C84" s="10"/>
       <c r="D84" t="s">
         <v>142</v>
       </c>
@@ -6387,13 +6402,13 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C85" s="9"/>
+      <c r="C85" s="10"/>
       <c r="D85" t="s">
         <v>143</v>
       </c>
@@ -6402,13 +6417,13 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C86" s="9"/>
+      <c r="C86" s="10"/>
       <c r="D86" t="s">
         <v>145</v>
       </c>
@@ -6417,13 +6432,13 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C87" s="9"/>
+      <c r="C87" s="10"/>
       <c r="D87" t="s">
         <v>146</v>
       </c>
@@ -6432,13 +6447,13 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>87</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D88" t="s">
@@ -6449,13 +6464,13 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>88</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="10"/>
       <c r="D89" t="s">
         <v>146</v>
       </c>
@@ -6464,13 +6479,13 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>89</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="10"/>
       <c r="D90" t="s">
         <v>151</v>
       </c>
@@ -6479,25 +6494,25 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>90</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="10"/>
       <c r="E91">
         <v>8.17</v>
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>91</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="10"/>
       <c r="D92" t="s">
         <v>154</v>
       </c>
@@ -6506,13 +6521,13 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>92</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="10"/>
       <c r="D93" t="s">
         <v>155</v>
       </c>
@@ -6521,13 +6536,13 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D94" t="s">
@@ -6538,13 +6553,13 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>94</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="10"/>
       <c r="D95" t="s">
         <v>160</v>
       </c>
@@ -6553,13 +6568,13 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>95</v>
       </c>
-      <c r="B96" s="7" t="s">
+      <c r="B96" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="10"/>
       <c r="D96" t="s">
         <v>162</v>
       </c>
@@ -6568,13 +6583,13 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>96</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="10"/>
       <c r="D97" t="s">
         <v>164</v>
       </c>
@@ -6583,13 +6598,13 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>97</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="10"/>
       <c r="D98" t="s">
         <v>165</v>
       </c>
@@ -6598,16 +6613,16 @@
       </c>
     </row>
     <row r="99" ht="40.5" spans="1:5">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
+      <c r="B99" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D99" s="19" t="s">
+      <c r="D99" s="20" t="s">
         <v>167</v>
       </c>
       <c r="E99">
@@ -6615,13 +6630,13 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>99</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C100" s="9"/>
+      <c r="C100" s="10"/>
       <c r="D100" t="s">
         <v>168</v>
       </c>
@@ -6630,13 +6645,13 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>100</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C101" s="5"/>
+      <c r="C101" s="6"/>
       <c r="D101" t="s">
         <v>169</v>
       </c>
@@ -6645,13 +6660,13 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="4">
+      <c r="A102" s="5">
         <v>101</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C102" s="9"/>
+      <c r="C102" s="10"/>
       <c r="D102" t="s">
         <v>171</v>
       </c>
@@ -6660,13 +6675,13 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>102</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="6" t="s">
         <v>172</v>
       </c>
       <c r="D103" t="s">
@@ -6676,15 +6691,15 @@
         <v>8.17</v>
       </c>
     </row>
-    <row r="104" ht="27" spans="1:5">
-      <c r="A104" s="4">
+    <row r="104" ht="40.5" spans="1:5">
+      <c r="A104" s="5">
         <v>103</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C104" s="9"/>
-      <c r="D104" s="19" t="s">
+      <c r="C104" s="10"/>
+      <c r="D104" s="20" t="s">
         <v>174</v>
       </c>
       <c r="E104">
@@ -6692,13 +6707,13 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>104</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C105" s="9"/>
+      <c r="C105" s="10"/>
       <c r="D105" t="s">
         <v>175</v>
       </c>
@@ -6707,13 +6722,13 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="4">
+      <c r="A106" s="5">
         <v>105</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D106" t="s">
@@ -6724,13 +6739,13 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107" s="4">
+      <c r="A107" s="5">
         <v>106</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C107" s="9"/>
+      <c r="C107" s="10"/>
       <c r="D107" t="s">
         <v>178</v>
       </c>
@@ -6739,13 +6754,13 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="4">
+      <c r="A108" s="5">
         <v>107</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="10"/>
       <c r="D108" t="s">
         <v>180</v>
       </c>
@@ -6754,13 +6769,13 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="4">
+      <c r="A109" s="5">
         <v>108</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D109" t="s">
@@ -6771,13 +6786,13 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="4">
+      <c r="A110" s="5">
         <v>109</v>
       </c>
-      <c r="B110" s="7" t="s">
+      <c r="B110" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D110" t="s">
@@ -6788,13 +6803,13 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="4">
+      <c r="A111" s="5">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
+      <c r="B111" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D111" t="s">
@@ -6805,13 +6820,13 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="4">
+      <c r="A112" s="5">
         <v>111</v>
       </c>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C112" s="21"/>
+      <c r="C112" s="22"/>
       <c r="D112" t="s">
         <v>186</v>
       </c>
@@ -6820,13 +6835,13 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="4">
+      <c r="A113" s="5">
         <v>112</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C113" s="8"/>
+      <c r="C113" s="9"/>
       <c r="D113" t="s">
         <v>188</v>
       </c>
@@ -6835,13 +6850,13 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="4">
+      <c r="A114" s="5">
         <v>113</v>
       </c>
-      <c r="B114" s="7" t="s">
+      <c r="B114" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="10"/>
       <c r="D114" t="s">
         <v>189</v>
       </c>
@@ -6850,13 +6865,13 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="4">
+      <c r="A115" s="5">
         <v>114</v>
       </c>
-      <c r="B115" s="7" t="s">
+      <c r="B115" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C115" s="9"/>
+      <c r="C115" s="10"/>
       <c r="D115" t="s">
         <v>191</v>
       </c>
@@ -6865,13 +6880,13 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="4">
+      <c r="A116" s="5">
         <v>115</v>
       </c>
-      <c r="B116" s="7" t="s">
+      <c r="B116" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C116" s="9"/>
+      <c r="C116" s="10"/>
       <c r="D116" t="s">
         <v>192</v>
       </c>
@@ -6880,13 +6895,13 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="4">
+      <c r="A117" s="5">
         <v>116</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D117" t="s">
@@ -6897,30 +6912,30 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="4">
+      <c r="A118" s="5">
         <v>117</v>
       </c>
-      <c r="B118" s="5" t="s">
+      <c r="B118" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="D118" s="21" t="s">
+      <c r="D118" s="23" t="s">
         <v>196</v>
       </c>
       <c r="E118">
         <v>8.18</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="4">
+    <row r="119" ht="27" spans="1:5">
+      <c r="A119" s="5">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D119" t="s">
@@ -6931,13 +6946,13 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="4">
+      <c r="A120" s="5">
         <v>119</v>
       </c>
-      <c r="B120" s="7" t="s">
+      <c r="B120" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="10"/>
       <c r="D120" t="s">
         <v>200</v>
       </c>
@@ -6946,13 +6961,13 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="4">
+      <c r="A121" s="5">
         <v>120</v>
       </c>
-      <c r="B121" s="7" t="s">
+      <c r="B121" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="10"/>
       <c r="D121" t="s">
         <v>192</v>
       </c>
@@ -6961,16 +6976,16 @@
       </c>
     </row>
     <row r="122" ht="27" spans="1:5">
-      <c r="A122" s="4">
+      <c r="A122" s="5">
         <v>121</v>
       </c>
-      <c r="B122" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="D122" s="19" t="s">
+      <c r="D122" s="20" t="s">
         <v>203</v>
       </c>
       <c r="E122">
@@ -6978,13 +6993,13 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123" s="4">
+      <c r="A123" s="5">
         <v>122</v>
       </c>
-      <c r="B123" s="7" t="s">
+      <c r="B123" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C123" s="5"/>
+      <c r="C123" s="6"/>
       <c r="D123" t="s">
         <v>192</v>
       </c>
@@ -6993,13 +7008,13 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124" s="4">
+      <c r="A124" s="5">
         <v>123</v>
       </c>
-      <c r="B124" s="5" t="s">
+      <c r="B124" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D124" t="s">
@@ -7010,13 +7025,13 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="4">
+      <c r="A125" s="5">
         <v>124</v>
       </c>
-      <c r="B125" s="7" t="s">
+      <c r="B125" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="10"/>
       <c r="D125" t="s">
         <v>206</v>
       </c>
@@ -7025,13 +7040,13 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126" s="4">
+      <c r="A126" s="5">
         <v>125</v>
       </c>
-      <c r="B126" s="7" t="s">
+      <c r="B126" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="10"/>
       <c r="D126" t="s">
         <v>208</v>
       </c>
@@ -7040,13 +7055,13 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="4">
+      <c r="A127" s="5">
         <v>126</v>
       </c>
-      <c r="B127" s="7" t="s">
+      <c r="B127" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="10"/>
       <c r="D127" t="s">
         <v>209</v>
       </c>
@@ -7055,13 +7070,13 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128" s="4">
+      <c r="A128" s="5">
         <v>127</v>
       </c>
-      <c r="B128" s="7" t="s">
+      <c r="B128" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="10"/>
       <c r="D128" t="s">
         <v>210</v>
       </c>
@@ -7070,13 +7085,13 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129" s="4">
+      <c r="A129" s="5">
         <v>128</v>
       </c>
-      <c r="B129" s="7" t="s">
+      <c r="B129" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C129" s="9"/>
+      <c r="C129" s="10"/>
       <c r="D129" t="s">
         <v>211</v>
       </c>
@@ -7085,13 +7100,13 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130" s="4">
+      <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="7" t="s">
+      <c r="B130" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C130" s="9" t="s">
+      <c r="C130" s="10" t="s">
         <v>212</v>
       </c>
       <c r="D130" t="s">
@@ -7102,13 +7117,13 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131" s="4">
+      <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="7" t="s">
+      <c r="B131" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C131" s="9"/>
+      <c r="C131" s="10"/>
       <c r="D131" t="s">
         <v>214</v>
       </c>
@@ -7117,13 +7132,13 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132" s="4">
+      <c r="A132" s="5">
         <v>131</v>
       </c>
-      <c r="B132" s="7" t="s">
+      <c r="B132" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="10"/>
       <c r="D132" t="s">
         <v>215</v>
       </c>
@@ -7131,14 +7146,14 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="4">
+    <row r="133" ht="27" spans="1:5">
+      <c r="A133" s="5">
         <v>132</v>
       </c>
-      <c r="B133" s="8" t="s">
+      <c r="B133" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D133" t="s">
@@ -7149,13 +7164,13 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134" s="4">
+      <c r="A134" s="5">
         <v>133</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C134" s="9"/>
+      <c r="C134" s="10"/>
       <c r="D134" t="s">
         <v>208</v>
       </c>
@@ -7163,14 +7178,14 @@
         <v>8.18</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="4">
+    <row r="135" ht="27" spans="1:5">
+      <c r="A135" s="5">
         <v>134</v>
       </c>
-      <c r="B135" s="8" t="s">
+      <c r="B135" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D135" t="s">
@@ -7181,13 +7196,13 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="4">
+      <c r="A136" s="5">
         <v>135</v>
       </c>
-      <c r="B136" s="7" t="s">
+      <c r="B136" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C136" s="9"/>
+      <c r="C136" s="10"/>
       <c r="D136" t="s">
         <v>211</v>
       </c>
@@ -7196,13 +7211,13 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137" s="4">
+      <c r="A137" s="5">
         <v>136</v>
       </c>
-      <c r="B137" s="7" t="s">
+      <c r="B137" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C137" s="9"/>
+      <c r="C137" s="10"/>
       <c r="D137" t="s">
         <v>210</v>
       </c>
@@ -7211,13 +7226,13 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138" s="4">
+      <c r="A138" s="5">
         <v>137</v>
       </c>
-      <c r="B138" s="7" t="s">
+      <c r="B138" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C138" s="9"/>
+      <c r="C138" s="10"/>
       <c r="D138" t="s">
         <v>220</v>
       </c>
@@ -7226,13 +7241,13 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139" s="4">
+      <c r="A139" s="5">
         <v>138</v>
       </c>
-      <c r="B139" s="7" t="s">
+      <c r="B139" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C139" s="9"/>
+      <c r="C139" s="10"/>
       <c r="D139" t="s">
         <v>213</v>
       </c>
@@ -7241,16 +7256,16 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140" s="4">
+      <c r="A140" s="5">
         <v>139</v>
       </c>
-      <c r="B140" s="5" t="s">
+      <c r="B140" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D140" s="22" t="s">
+      <c r="D140" s="24" t="s">
         <v>223</v>
       </c>
       <c r="E140">
@@ -7258,13 +7273,13 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141" s="4">
+      <c r="A141" s="5">
         <v>140</v>
       </c>
-      <c r="B141" s="5" t="s">
+      <c r="B141" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C141" s="5" t="s">
+      <c r="C141" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D141" t="s">
@@ -7275,13 +7290,13 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142" s="4">
+      <c r="A142" s="5">
         <v>141</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="C142" s="9"/>
+      <c r="C142" s="10"/>
       <c r="D142" t="s">
         <v>226</v>
       </c>
@@ -7290,13 +7305,13 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143" s="4">
+      <c r="A143" s="5">
         <v>142</v>
       </c>
-      <c r="B143" s="7" t="s">
+      <c r="B143" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="C143" s="7" t="s">
+      <c r="C143" s="8" t="s">
         <v>228</v>
       </c>
       <c r="D143" t="s">
@@ -7307,13 +7322,13 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144" s="4">
+      <c r="A144" s="5">
         <v>143</v>
       </c>
-      <c r="B144" s="7" t="s">
+      <c r="B144" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C144" s="9"/>
+      <c r="C144" s="10"/>
       <c r="D144" t="s">
         <v>231</v>
       </c>
@@ -7322,13 +7337,13 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145" s="4">
+      <c r="A145" s="5">
         <v>144</v>
       </c>
-      <c r="B145" s="7" t="s">
+      <c r="B145" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="C145" s="9"/>
+      <c r="C145" s="10"/>
       <c r="D145" t="s">
         <v>211</v>
       </c>
@@ -7337,13 +7352,13 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146" s="4">
+      <c r="A146" s="5">
         <v>145</v>
       </c>
-      <c r="B146" s="5" t="s">
+      <c r="B146" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="C146" s="9"/>
+      <c r="C146" s="10"/>
       <c r="D146" t="s">
         <v>233</v>
       </c>
@@ -7352,13 +7367,13 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147" s="4">
+      <c r="A147" s="5">
         <v>146</v>
       </c>
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="25" t="s">
         <v>184</v>
       </c>
-      <c r="C147" s="23" t="s">
+      <c r="C147" s="25" t="s">
         <v>234</v>
       </c>
       <c r="D147" t="s">
@@ -7369,13 +7384,13 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="4">
+      <c r="A148" s="5">
         <v>147</v>
       </c>
-      <c r="B148" s="23" t="s">
+      <c r="B148" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C148" s="21"/>
+      <c r="C148" s="22"/>
       <c r="D148" t="s">
         <v>237</v>
       </c>
@@ -7384,13 +7399,13 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="4">
+      <c r="A149" s="5">
         <v>148</v>
       </c>
-      <c r="B149" s="24" t="s">
+      <c r="B149" s="26" t="s">
         <v>238</v>
       </c>
-      <c r="C149" s="24" t="s">
+      <c r="C149" s="26" t="s">
         <v>239</v>
       </c>
       <c r="D149" t="s">
@@ -7401,13 +7416,13 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150" s="4">
+      <c r="A150" s="5">
         <v>149</v>
       </c>
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="25" t="s">
         <v>150</v>
       </c>
-      <c r="C150" s="21"/>
+      <c r="C150" s="22"/>
       <c r="D150" t="s">
         <v>241</v>
       </c>
@@ -7416,13 +7431,13 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="4">
+      <c r="A151" s="5">
         <v>150</v>
       </c>
-      <c r="B151" s="23" t="s">
+      <c r="B151" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C151" s="21"/>
+      <c r="C151" s="22"/>
       <c r="D151" t="s">
         <v>243</v>
       </c>
@@ -7431,14 +7446,14 @@
       </c>
     </row>
     <row r="152" ht="27" spans="1:5">
-      <c r="A152" s="4">
+      <c r="A152" s="5">
         <v>151</v>
       </c>
-      <c r="B152" s="7" t="s">
+      <c r="B152" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C152" s="21"/>
-      <c r="D152" s="19" t="s">
+      <c r="C152" s="22"/>
+      <c r="D152" s="20" t="s">
         <v>244</v>
       </c>
       <c r="E152" t="s">
@@ -7446,14 +7461,14 @@
       </c>
     </row>
     <row r="153" ht="27" spans="1:5">
-      <c r="A153" s="4">
+      <c r="A153" s="5">
         <v>152</v>
       </c>
-      <c r="B153" s="7" t="s">
+      <c r="B153" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C153" s="21"/>
-      <c r="D153" s="19" t="s">
+      <c r="C153" s="22"/>
+      <c r="D153" s="20" t="s">
         <v>246</v>
       </c>
       <c r="E153" t="s">
@@ -7461,14 +7476,14 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154" s="4">
+      <c r="A154" s="5">
         <v>153</v>
       </c>
-      <c r="B154" s="7" t="s">
+      <c r="B154" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C154" s="21"/>
-      <c r="D154" s="19" t="s">
+      <c r="C154" s="22"/>
+      <c r="D154" s="20" t="s">
         <v>247</v>
       </c>
       <c r="E154" t="s">
@@ -7476,14 +7491,14 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155" s="4">
+      <c r="A155" s="5">
         <v>154</v>
       </c>
-      <c r="B155" s="7" t="s">
+      <c r="B155" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C155" s="21"/>
-      <c r="D155" s="19" t="s">
+      <c r="C155" s="22"/>
+      <c r="D155" s="20" t="s">
         <v>248</v>
       </c>
       <c r="E155" t="s">
@@ -7491,14 +7506,14 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="4">
+      <c r="A156" s="5">
         <v>155</v>
       </c>
-      <c r="B156" s="7" t="s">
+      <c r="B156" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C156" s="21"/>
-      <c r="D156" s="19" t="s">
+      <c r="C156" s="22"/>
+      <c r="D156" s="20" t="s">
         <v>249</v>
       </c>
       <c r="E156" t="s">
@@ -7506,13 +7521,13 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="4">
+      <c r="A157" s="5">
         <v>156</v>
       </c>
-      <c r="B157" s="7" t="s">
+      <c r="B157" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C157" s="21"/>
+      <c r="C157" s="22"/>
       <c r="D157" t="s">
         <v>250</v>
       </c>
@@ -7521,14 +7536,14 @@
       </c>
     </row>
     <row r="158" ht="27" spans="1:5">
-      <c r="A158" s="4">
+      <c r="A158" s="5">
         <v>157</v>
       </c>
-      <c r="B158" s="7" t="s">
+      <c r="B158" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C158" s="21"/>
-      <c r="D158" s="19" t="s">
+      <c r="C158" s="22"/>
+      <c r="D158" s="20" t="s">
         <v>251</v>
       </c>
       <c r="E158" t="s">
@@ -7536,13 +7551,13 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="4">
+      <c r="A159" s="5">
         <v>158</v>
       </c>
-      <c r="B159" s="7" t="s">
+      <c r="B159" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C159" s="21"/>
+      <c r="C159" s="22"/>
       <c r="D159" t="s">
         <v>252</v>
       </c>
@@ -7551,13 +7566,13 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160" s="4">
+      <c r="A160" s="5">
         <v>159</v>
       </c>
-      <c r="B160" s="7" t="s">
+      <c r="B160" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="C160" s="21"/>
+      <c r="C160" s="22"/>
       <c r="D160" t="s">
         <v>253</v>
       </c>
@@ -7566,13 +7581,13 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161" s="4">
+      <c r="A161" s="5">
         <v>160</v>
       </c>
-      <c r="B161" s="23" t="s">
+      <c r="B161" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="C161" s="21"/>
+      <c r="C161" s="22"/>
       <c r="D161" t="s">
         <v>255</v>
       </c>
@@ -7581,25 +7596,25 @@
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="4">
+      <c r="A162" s="5">
         <v>161</v>
       </c>
-      <c r="B162" s="23" t="s">
+      <c r="B162" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C162" s="21"/>
+      <c r="C162" s="22"/>
       <c r="D162" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="4">
+      <c r="A163" s="5">
         <v>162</v>
       </c>
-      <c r="B163" s="23" t="s">
+      <c r="B163" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="C163" s="25" t="s">
+      <c r="C163" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D163" t="s">
@@ -7610,13 +7625,13 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164" s="4">
+      <c r="A164" s="5">
         <v>163</v>
       </c>
-      <c r="B164" s="25" t="s">
+      <c r="B164" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="C164" s="25" t="s">
+      <c r="C164" s="27" t="s">
         <v>130</v>
       </c>
       <c r="E164" t="s">
@@ -7624,14 +7639,14 @@
       </c>
     </row>
     <row r="165" ht="27" spans="1:5">
-      <c r="A165" s="4">
+      <c r="A165" s="5">
         <v>164</v>
       </c>
-      <c r="B165" s="23" t="s">
+      <c r="B165" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C165" s="21"/>
-      <c r="D165" s="19" t="s">
+      <c r="C165" s="22"/>
+      <c r="D165" s="20" t="s">
         <v>260</v>
       </c>
       <c r="E165" t="s">
@@ -7639,16 +7654,16 @@
       </c>
     </row>
     <row r="166" ht="67.5" spans="1:5">
-      <c r="A166" s="4">
+      <c r="A166" s="5">
         <v>165</v>
       </c>
-      <c r="B166" s="23" t="s">
+      <c r="B166" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C166" s="25" t="s">
+      <c r="C166" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="D166" s="26" t="s">
+      <c r="D166" s="28" t="s">
         <v>262</v>
       </c>
       <c r="E166" t="s">
@@ -7656,13 +7671,13 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="4">
+      <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="23" t="s">
+      <c r="B167" s="25" t="s">
         <v>259</v>
       </c>
-      <c r="C167" s="21"/>
+      <c r="C167" s="22"/>
       <c r="D167" t="s">
         <v>263</v>
       </c>
@@ -7671,13 +7686,13 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168" s="4">
+      <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="B168" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="C168" s="24" t="s">
+      <c r="C168" s="26" t="s">
         <v>239</v>
       </c>
       <c r="D168" t="s">
@@ -7688,16 +7703,16 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="4">
+      <c r="A169" s="5">
         <v>168</v>
       </c>
-      <c r="B169" s="24" t="s">
+      <c r="B169" s="26" t="s">
         <v>265</v>
       </c>
-      <c r="C169" s="24" t="s">
+      <c r="C169" s="26" t="s">
         <v>266</v>
       </c>
-      <c r="D169" s="23" t="s">
+      <c r="D169" s="29" t="s">
         <v>267</v>
       </c>
       <c r="E169" t="s">
@@ -7705,16 +7720,16 @@
       </c>
     </row>
     <row r="170" ht="27" spans="1:5">
-      <c r="A170" s="4">
+      <c r="A170" s="5">
         <v>169</v>
       </c>
-      <c r="B170" s="24" t="s">
+      <c r="B170" s="26" t="s">
         <v>268</v>
       </c>
-      <c r="C170" s="24" t="s">
+      <c r="C170" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="D170" s="19" t="s">
+      <c r="D170" s="20" t="s">
         <v>270</v>
       </c>
       <c r="E170" t="s">
@@ -7722,13 +7737,13 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="4">
+      <c r="A171" s="5">
         <v>170</v>
       </c>
-      <c r="B171" s="23" t="s">
+      <c r="B171" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C171" s="25" t="s">
+      <c r="C171" s="27" t="s">
         <v>271</v>
       </c>
       <c r="D171" t="s">
@@ -7739,13 +7754,13 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="4">
+      <c r="A172" s="5">
         <v>171</v>
       </c>
-      <c r="B172" s="23" t="s">
+      <c r="B172" s="25" t="s">
         <v>273</v>
       </c>
-      <c r="C172" s="23" t="s">
+      <c r="C172" s="25" t="s">
         <v>274</v>
       </c>
       <c r="D172" t="s">
@@ -7756,13 +7771,13 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173" s="4">
+      <c r="A173" s="5">
         <v>172</v>
       </c>
-      <c r="B173" s="23" t="s">
+      <c r="B173" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C173" s="21"/>
+      <c r="C173" s="22"/>
       <c r="D173" t="s">
         <v>276</v>
       </c>
@@ -7771,13 +7786,13 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174" s="4">
+      <c r="A174" s="5">
         <v>173</v>
       </c>
-      <c r="B174" s="24" t="s">
+      <c r="B174" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C174" s="24" t="s">
+      <c r="C174" s="26" t="s">
         <v>278</v>
       </c>
       <c r="D174" t="s">
@@ -7788,13 +7803,13 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="4">
+      <c r="A175" s="5">
         <v>174</v>
       </c>
-      <c r="B175" s="23" t="s">
+      <c r="B175" s="25" t="s">
         <v>187</v>
       </c>
-      <c r="C175" s="21"/>
+      <c r="C175" s="22"/>
       <c r="D175" t="s">
         <v>280</v>
       </c>
@@ -7803,13 +7818,13 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176" s="4">
+      <c r="A176" s="5">
         <v>175</v>
       </c>
-      <c r="B176" s="24" t="s">
+      <c r="B176" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C176" s="21"/>
+      <c r="C176" s="22"/>
       <c r="D176" t="s">
         <v>281</v>
       </c>
@@ -7818,58 +7833,58 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="4">
+      <c r="A177" s="5">
         <v>176</v>
       </c>
-      <c r="B177" s="23" t="s">
+      <c r="B177" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C177" s="21"/>
+      <c r="C177" s="22"/>
       <c r="E177" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:3">
-      <c r="A178" s="4">
+      <c r="A178" s="5">
         <v>177</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="B178" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="C178" s="24" t="s">
+      <c r="C178" s="26" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:3">
-      <c r="A179" s="4">
+      <c r="A179" s="5">
         <v>178</v>
       </c>
-      <c r="B179" s="24" t="s">
+      <c r="B179" s="26" t="s">
         <v>284</v>
       </c>
-      <c r="C179" s="24" t="s">
+      <c r="C179" s="26" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="180" spans="1:3">
-      <c r="A180" s="4">
+      <c r="A180" s="5">
         <v>179</v>
       </c>
-      <c r="B180" s="24" t="s">
+      <c r="B180" s="26" t="s">
         <v>286</v>
       </c>
-      <c r="C180" s="24" t="s">
+      <c r="C180" s="26" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="181" spans="1:3">
-      <c r="A181" s="4">
+      <c r="A181" s="5">
         <v>180</v>
       </c>
-      <c r="B181" s="24" t="s">
+      <c r="B181" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="C181" s="24" t="s">
+      <c r="C181" s="26" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7877,10 +7892,10 @@
       <c r="A182" s="2">
         <v>181</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="B182" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="C182" s="24" t="s">
+      <c r="C182" s="26" t="s">
         <v>290</v>
       </c>
     </row>
@@ -7888,10 +7903,10 @@
       <c r="A183" s="2">
         <v>182</v>
       </c>
-      <c r="B183" s="24" t="s">
+      <c r="B183" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="C183" s="24" t="s">
+      <c r="C183" s="26" t="s">
         <v>292</v>
       </c>
     </row>
@@ -7899,10 +7914,10 @@
       <c r="A184" s="2">
         <v>183</v>
       </c>
-      <c r="B184" s="25" t="s">
+      <c r="B184" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="C184" s="25" t="s">
+      <c r="C184" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7910,10 +7925,10 @@
       <c r="A185" s="2">
         <v>184</v>
       </c>
-      <c r="B185" s="25" t="s">
+      <c r="B185" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="C185" s="25" t="s">
+      <c r="C185" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -7921,10 +7936,10 @@
       <c r="A186" s="2">
         <v>185</v>
       </c>
-      <c r="B186" s="25" t="s">
+      <c r="B186" s="27" t="s">
         <v>216</v>
       </c>
-      <c r="C186" s="25" t="s">
+      <c r="C186" s="27" t="s">
         <v>21</v>
       </c>
     </row>
@@ -7932,9 +7947,10 @@
       <c r="A187" s="2">
         <v>186</v>
       </c>
-      <c r="B187" s="23" t="s">
+      <c r="B187" s="25" t="s">
         <v>123</v>
       </c>
+      <c r="C187" s="30"/>
       <c r="D187" t="s">
         <v>295</v>
       </c>
@@ -7946,9 +7962,10 @@
       <c r="A188" s="2">
         <v>187</v>
       </c>
-      <c r="B188" s="23" t="s">
+      <c r="B188" s="25" t="s">
         <v>207</v>
       </c>
+      <c r="C188" s="30"/>
       <c r="D188" t="s">
         <v>297</v>
       </c>
@@ -7960,10 +7977,10 @@
       <c r="A189" s="2">
         <v>188</v>
       </c>
-      <c r="B189" s="25" t="s">
+      <c r="B189" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="C189" s="25" t="s">
+      <c r="C189" s="27" t="s">
         <v>298</v>
       </c>
       <c r="D189" t="s">
@@ -7977,13 +7994,13 @@
       <c r="A190" s="2">
         <v>189</v>
       </c>
-      <c r="B190" s="25" t="s">
+      <c r="B190" s="27" t="s">
         <v>300</v>
       </c>
-      <c r="C190" s="25" t="s">
+      <c r="C190" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D190" s="19" t="s">
+      <c r="D190" s="20" t="s">
         <v>301</v>
       </c>
       <c r="E190" t="s">
@@ -7994,10 +8011,10 @@
       <c r="A191" s="2">
         <v>190</v>
       </c>
-      <c r="B191" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="C191" s="25" t="s">
+      <c r="B191" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="C191" s="27" t="s">
         <v>298</v>
       </c>
       <c r="D191" t="s">
@@ -8008,12 +8025,13 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192" s="27">
+      <c r="A192" s="31">
         <v>191</v>
       </c>
-      <c r="B192" s="23" t="s">
+      <c r="B192" s="25" t="s">
         <v>259</v>
       </c>
+      <c r="C192" s="30"/>
       <c r="D192" t="s">
         <v>303</v>
       </c>
@@ -8025,10 +8043,10 @@
       <c r="A193" s="2">
         <v>192</v>
       </c>
-      <c r="B193" s="23" t="s">
+      <c r="B193" s="25" t="s">
         <v>304</v>
       </c>
-      <c r="C193" s="23" t="s">
+      <c r="C193" s="25" t="s">
         <v>305</v>
       </c>
       <c r="D193" t="s">
@@ -8042,10 +8060,10 @@
       <c r="A194" s="2">
         <v>193</v>
       </c>
-      <c r="B194" s="24" t="s">
+      <c r="B194" s="26" t="s">
         <v>277</v>
       </c>
-      <c r="C194" s="24" t="s">
+      <c r="C194" s="26" t="s">
         <v>307</v>
       </c>
       <c r="D194" t="s">
@@ -8059,10 +8077,10 @@
       <c r="A195" s="2">
         <v>194</v>
       </c>
-      <c r="B195" s="25" t="s">
+      <c r="B195" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C195" s="25" t="s">
+      <c r="C195" s="27" t="s">
         <v>130</v>
       </c>
       <c r="D195" t="s">
@@ -8076,10 +8094,10 @@
       <c r="A196" s="2">
         <v>195</v>
       </c>
-      <c r="B196" s="23" t="s">
+      <c r="B196" s="25" t="s">
         <v>310</v>
       </c>
-      <c r="C196" s="25" t="s">
+      <c r="C196" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D196" t="s">
@@ -8093,9 +8111,10 @@
       <c r="A197" s="2">
         <v>196</v>
       </c>
-      <c r="B197" s="23" t="s">
+      <c r="B197" s="25" t="s">
         <v>310</v>
       </c>
+      <c r="C197" s="30"/>
       <c r="D197" t="s">
         <v>312</v>
       </c>
@@ -8107,9 +8126,10 @@
       <c r="A198" s="2">
         <v>197</v>
       </c>
-      <c r="B198" s="23" t="s">
+      <c r="B198" s="25" t="s">
         <v>310</v>
       </c>
+      <c r="C198" s="30"/>
       <c r="D198" t="s">
         <v>313</v>
       </c>
@@ -8121,9 +8141,10 @@
       <c r="A199" s="2">
         <v>198</v>
       </c>
-      <c r="B199" s="23" t="s">
+      <c r="B199" s="25" t="s">
         <v>314</v>
       </c>
+      <c r="C199" s="30"/>
       <c r="D199" t="s">
         <v>315</v>
       </c>
@@ -8131,28 +8152,29 @@
         <v>296</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" ht="27" spans="1:5">
       <c r="A200" s="2">
         <v>199</v>
       </c>
-      <c r="B200" s="24" t="s">
+      <c r="B200" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C200" s="24" t="s">
+      <c r="C200" s="26" t="s">
         <v>316</v>
       </c>
       <c r="E200" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="201" ht="14.25" spans="1:5">
+    <row r="201" spans="1:5">
       <c r="A201" s="2">
         <v>200</v>
       </c>
-      <c r="B201" s="23" t="s">
+      <c r="B201" s="25" t="s">
         <v>245</v>
       </c>
-      <c r="D201" s="28" t="s">
+      <c r="C201" s="30"/>
+      <c r="D201" s="32" t="s">
         <v>317</v>
       </c>
       <c r="E201" t="s">
@@ -8163,9 +8185,10 @@
       <c r="A202" s="2">
         <v>201</v>
       </c>
-      <c r="B202" s="23" t="s">
+      <c r="B202" s="25" t="s">
         <v>319</v>
       </c>
+      <c r="C202" s="30"/>
       <c r="D202" t="s">
         <v>320</v>
       </c>
@@ -8177,9 +8200,10 @@
       <c r="A203" s="2">
         <v>202</v>
       </c>
-      <c r="B203" s="23" t="s">
+      <c r="B203" s="25" t="s">
         <v>321</v>
       </c>
+      <c r="C203" s="30"/>
       <c r="D203" t="s">
         <v>322</v>
       </c>
@@ -8191,11 +8215,12 @@
       <c r="A204" s="2">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="C204" s="30"/>
+      <c r="D204" t="s">
         <v>323</v>
-      </c>
-      <c r="D204" t="s">
-        <v>324</v>
       </c>
       <c r="E204" t="s">
         <v>318</v>
@@ -8205,11 +8230,12 @@
       <c r="A205" s="2">
         <v>204</v>
       </c>
-      <c r="B205" s="23" t="s">
+      <c r="B205" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="C205" s="30"/>
+      <c r="D205" t="s">
         <v>325</v>
-      </c>
-      <c r="D205" t="s">
-        <v>326</v>
       </c>
       <c r="E205" t="s">
         <v>318</v>
@@ -8219,11 +8245,12 @@
       <c r="A206" s="2">
         <v>205</v>
       </c>
-      <c r="B206" s="23" t="s">
+      <c r="B206" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C206" s="30"/>
+      <c r="D206" t="s">
         <v>327</v>
-      </c>
-      <c r="D206" t="s">
-        <v>328</v>
       </c>
       <c r="E206" t="s">
         <v>318</v>
@@ -8233,14 +8260,14 @@
       <c r="A207" s="2">
         <v>206</v>
       </c>
-      <c r="B207" s="25" t="s">
+      <c r="B207" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C207" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="C207" s="25" t="s">
+      <c r="D207" t="s">
         <v>330</v>
-      </c>
-      <c r="D207" t="s">
-        <v>331</v>
       </c>
       <c r="E207" t="s">
         <v>318</v>
@@ -8250,11 +8277,12 @@
       <c r="A208" s="2">
         <v>207</v>
       </c>
-      <c r="B208" s="23" t="s">
+      <c r="B208" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="C208" s="30"/>
+      <c r="D208" t="s">
         <v>332</v>
-      </c>
-      <c r="D208" t="s">
-        <v>333</v>
       </c>
       <c r="E208" t="s">
         <v>318</v>
@@ -8264,11 +8292,12 @@
       <c r="A209" s="2">
         <v>208</v>
       </c>
-      <c r="B209" s="23" t="s">
+      <c r="B209" s="25" t="s">
         <v>314</v>
       </c>
+      <c r="C209" s="30"/>
       <c r="D209" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E209" t="s">
         <v>318</v>
@@ -8278,11 +8307,12 @@
       <c r="A210" s="2">
         <v>209</v>
       </c>
-      <c r="B210" s="23" t="s">
+      <c r="B210" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C210" s="30"/>
+      <c r="D210" t="s">
         <v>335</v>
-      </c>
-      <c r="D210" t="s">
-        <v>336</v>
       </c>
       <c r="E210" t="s">
         <v>318</v>
@@ -8292,11 +8322,11 @@
       <c r="A211" s="2">
         <v>210</v>
       </c>
-      <c r="B211" s="24" t="s">
+      <c r="B211" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C211" s="26" t="s">
         <v>337</v>
-      </c>
-      <c r="C211" s="24" t="s">
-        <v>338</v>
       </c>
       <c r="D211" t="s">
         <v>44</v>
@@ -8309,11 +8339,12 @@
       <c r="A212" s="2">
         <v>211</v>
       </c>
-      <c r="B212" s="23" t="s">
-        <v>335</v>
-      </c>
+      <c r="B212" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C212" s="30"/>
       <c r="D212" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E212" t="s">
         <v>318</v>
@@ -8323,14 +8354,14 @@
       <c r="A213" s="2">
         <v>212</v>
       </c>
-      <c r="B213" s="25" t="s">
+      <c r="B213" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="C213" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="C213" s="25" t="s">
+      <c r="D213" t="s">
         <v>341</v>
-      </c>
-      <c r="D213" t="s">
-        <v>342</v>
       </c>
       <c r="E213" t="s">
         <v>318</v>
@@ -8340,14 +8371,14 @@
       <c r="A214" s="2">
         <v>213</v>
       </c>
-      <c r="B214" s="25" t="s">
+      <c r="B214" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="C214" s="27" t="s">
         <v>343</v>
       </c>
-      <c r="C214" s="25" t="s">
+      <c r="D214" t="s">
         <v>344</v>
-      </c>
-      <c r="D214" t="s">
-        <v>345</v>
       </c>
       <c r="E214" t="s">
         <v>318</v>
@@ -8357,11 +8388,12 @@
       <c r="A215" s="2">
         <v>214</v>
       </c>
-      <c r="B215" s="23" t="s">
+      <c r="B215" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C215" s="30"/>
+      <c r="D215" t="s">
         <v>346</v>
-      </c>
-      <c r="D215" t="s">
-        <v>347</v>
       </c>
       <c r="E215" t="s">
         <v>318</v>
@@ -8371,11 +8403,12 @@
       <c r="A216" s="2">
         <v>215</v>
       </c>
-      <c r="B216" s="23" t="s">
-        <v>346</v>
-      </c>
+      <c r="B216" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="C216" s="30"/>
       <c r="D216" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E216" t="s">
         <v>318</v>
@@ -8385,14 +8418,14 @@
       <c r="A217" s="2">
         <v>216</v>
       </c>
-      <c r="B217" s="25" t="s">
+      <c r="B217" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="C217" s="27" t="s">
+        <v>329</v>
+      </c>
+      <c r="D217" s="33" t="s">
         <v>349</v>
-      </c>
-      <c r="C217" s="25" t="s">
-        <v>330</v>
-      </c>
-      <c r="D217" s="29" t="s">
-        <v>350</v>
       </c>
       <c r="E217" t="s">
         <v>318</v>
@@ -8402,14 +8435,14 @@
       <c r="A218" s="2">
         <v>217</v>
       </c>
-      <c r="B218" s="25" t="s">
+      <c r="B218" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="C218" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="C218" s="25" t="s">
+      <c r="D218" t="s">
         <v>352</v>
-      </c>
-      <c r="D218" t="s">
-        <v>353</v>
       </c>
       <c r="E218" t="s">
         <v>318</v>
@@ -8419,11 +8452,12 @@
       <c r="A219" s="2">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="25" t="s">
+        <v>353</v>
+      </c>
+      <c r="C219" s="30"/>
+      <c r="D219" s="20" t="s">
         <v>354</v>
-      </c>
-      <c r="D219" s="19" t="s">
-        <v>355</v>
       </c>
       <c r="E219" t="s">
         <v>318</v>
@@ -8433,11 +8467,14 @@
       <c r="A220" s="2">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>354</v>
+      <c r="B220" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C220" s="26" t="s">
+        <v>356</v>
       </c>
       <c r="D220" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E220" t="s">
         <v>318</v>
@@ -8447,11 +8484,11 @@
       <c r="A221" s="2">
         <v>220</v>
       </c>
-      <c r="B221" s="25" t="s">
-        <v>357</v>
-      </c>
-      <c r="C221" s="25" t="s">
+      <c r="B221" s="27" t="s">
         <v>358</v>
+      </c>
+      <c r="C221" s="27" t="s">
+        <v>61</v>
       </c>
       <c r="D221" t="s">
         <v>359</v>
@@ -8460,13 +8497,14 @@
         <v>318</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" ht="27" spans="1:5">
       <c r="A222" s="2">
         <v>221</v>
       </c>
-      <c r="B222" s="23" t="s">
+      <c r="B222" s="25" t="s">
         <v>360</v>
       </c>
+      <c r="C222" s="30"/>
       <c r="D222" t="s">
         <v>361</v>
       </c>
@@ -8478,9 +8516,10 @@
       <c r="A223" s="2">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="30" t="s">
         <v>219</v>
       </c>
+      <c r="C223" s="30"/>
       <c r="D223" t="s">
         <v>362</v>
       </c>
@@ -8492,30 +8531,30 @@
       <c r="A224" s="2">
         <v>223</v>
       </c>
-      <c r="B224" s="24" t="s">
+      <c r="B224" s="26" t="s">
         <v>219</v>
       </c>
-      <c r="C224" s="24" t="s">
+      <c r="C224" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="D224" s="21" t="s">
+      <c r="D224" s="23" t="s">
         <v>364</v>
       </c>
       <c r="E224" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="225" ht="40.5" spans="1:5">
+    <row r="225" ht="54" spans="1:5">
       <c r="A225" s="2">
         <v>224</v>
       </c>
-      <c r="B225" s="25" t="s">
+      <c r="B225" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="C225" s="25" t="s">
+      <c r="C225" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="D225" s="19" t="s">
+      <c r="D225" s="20" t="s">
         <v>366</v>
       </c>
       <c r="E225" t="s">
@@ -8526,9 +8565,10 @@
       <c r="A226" s="2">
         <v>225</v>
       </c>
-      <c r="B226" s="23" t="s">
+      <c r="B226" s="25" t="s">
         <v>218</v>
       </c>
+      <c r="C226" s="30"/>
       <c r="D226" t="s">
         <v>367</v>
       </c>
@@ -8540,11 +8580,11 @@
       <c r="A227" s="2">
         <v>226</v>
       </c>
-      <c r="B227" s="25" t="s">
+      <c r="B227" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="C227" s="25" t="s">
-        <v>330</v>
+      <c r="C227" s="27" t="s">
+        <v>329</v>
       </c>
       <c r="D227" t="s">
         <v>369</v>
@@ -8557,9 +8597,10 @@
       <c r="A228" s="2">
         <v>227</v>
       </c>
-      <c r="B228" s="23" t="s">
+      <c r="B228" s="25" t="s">
         <v>187</v>
       </c>
+      <c r="C228" s="30"/>
       <c r="D228" t="s">
         <v>370</v>
       </c>
@@ -8571,14 +8612,14 @@
       <c r="A229" s="2">
         <v>228</v>
       </c>
-      <c r="B229" s="25" t="s">
+      <c r="B229" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="C229" s="25" t="s">
-        <v>352</v>
+      <c r="C229" s="27" t="s">
+        <v>372</v>
       </c>
       <c r="D229" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E229" t="s">
         <v>318</v>
@@ -8588,14 +8629,14 @@
       <c r="A230" s="2">
         <v>229</v>
       </c>
-      <c r="B230" s="25" t="s">
+      <c r="B230" s="27" t="s">
         <v>371</v>
       </c>
-      <c r="C230" s="25" t="s">
-        <v>373</v>
+      <c r="C230" s="27" t="s">
+        <v>374</v>
       </c>
       <c r="D230" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E230" t="s">
         <v>318</v>
@@ -8605,6 +8646,8 @@
       <c r="A231" s="2">
         <v>230</v>
       </c>
+      <c r="B231" s="30"/>
+      <c r="C231" s="30"/>
       <c r="E231" t="s">
         <v>318</v>
       </c>
@@ -8613,6 +8656,8 @@
       <c r="A232" s="2">
         <v>231</v>
       </c>
+      <c r="B232" s="30"/>
+      <c r="C232" s="30"/>
       <c r="E232" t="s">
         <v>318</v>
       </c>
